--- a/data/trans_dic/P23_1_2016_2023_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_2016_2023_R-Dificultad-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.406372199816317</v>
+        <v>0.4056636403610246</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3298825569731327</v>
+        <v>0.329368875985713</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2893356774491858</v>
+        <v>0.2899570417711723</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2070938897737542</v>
+        <v>0.203694084951034</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3541136488813804</v>
+        <v>0.3532697797768709</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2727754926104542</v>
+        <v>0.2704946320609251</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4651368960459632</v>
+        <v>0.4650240750346946</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4257851733808212</v>
+        <v>0.4270040602663285</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3445951772571324</v>
+        <v>0.3406537455966779</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2642650977466133</v>
+        <v>0.2641494528059115</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3951129433754341</v>
+        <v>0.3922780972031483</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3272137784224405</v>
+        <v>0.3247567665858586</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3284946716353431</v>
+        <v>0.3259815027053218</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2309747146960367</v>
+        <v>0.2300658340650064</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2350066778356892</v>
+        <v>0.234718284825258</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1771439663030768</v>
+        <v>0.1764960470033874</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2851059165418576</v>
+        <v>0.286857945126154</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2094598605811264</v>
+        <v>0.2092761136223507</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3908149914609225</v>
+        <v>0.3889577955281822</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2951167991181999</v>
+        <v>0.2973852682702848</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2898080542537183</v>
+        <v>0.2897475758713009</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2181374116749341</v>
+        <v>0.2206570003058645</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3277858657524362</v>
+        <v>0.328056601352314</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2462530584291151</v>
+        <v>0.2472457096534826</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2436114252374927</v>
+        <v>0.2415202719129201</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2083085690613595</v>
+        <v>0.2050827305500413</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1838007753723148</v>
+        <v>0.1829718522465923</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1517869597162724</v>
+        <v>0.151490919482648</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2216730064994028</v>
+        <v>0.2227214070281185</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1865865674329229</v>
+        <v>0.1876552827763308</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.308375030441744</v>
+        <v>0.3068778583128914</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2642814307002025</v>
+        <v>0.2641613407420326</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.242251537331848</v>
+        <v>0.244576184411453</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1936145191546766</v>
+        <v>0.1933297257261206</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2672509145290448</v>
+        <v>0.2676312608523251</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2210465127849826</v>
+        <v>0.2225477213253867</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2141781222019306</v>
+        <v>0.2148958072402475</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1785532240233393</v>
+        <v>0.1787036312541325</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.152491442039641</v>
+        <v>0.1539197231765556</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1502983228858855</v>
+        <v>0.1516930781685701</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1948470044801549</v>
+        <v>0.194848909059489</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.172481701740004</v>
+        <v>0.1727661322456187</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.293570144884684</v>
+        <v>0.2931385444441461</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2409429099715397</v>
+        <v>0.2400505303295179</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2267973905559016</v>
+        <v>0.2264952946027251</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1966891971896267</v>
+        <v>0.2002692754485267</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2492273434089148</v>
+        <v>0.2458662092624142</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2138459043477817</v>
+        <v>0.2114596305703131</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +940,7 @@
         <v>0.3467947091024365</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.2559092570525816</v>
+        <v>0.2559092570525817</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.2601557468561811</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.330088042222586</v>
+        <v>0.3303193424909384</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2394764436179216</v>
+        <v>0.2407042721667453</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2449970746807334</v>
+        <v>0.2460357321135959</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.179891592975354</v>
+        <v>0.1793572353453868</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.291568033669645</v>
+        <v>0.2904954449009193</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2121611729053158</v>
+        <v>0.2118844046516752</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3640690329668763</v>
+        <v>0.3637427981879039</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2718254384342607</v>
+        <v>0.27258502222372</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2748483405068989</v>
+        <v>0.2763091882495922</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2028957942067329</v>
+        <v>0.2028329443416232</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3136828476348661</v>
+        <v>0.3135289535178177</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2319918362859583</v>
+        <v>0.2322341699280495</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>458387</v>
+        <v>457587</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>164525</v>
+        <v>164269</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>364115</v>
+        <v>364897</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>129140</v>
+        <v>127020</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>845074</v>
+        <v>843060</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>306141</v>
+        <v>303582</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>524673</v>
+        <v>524546</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>212356</v>
+        <v>212964</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>433656</v>
+        <v>428696</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>164790</v>
+        <v>164718</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>942917</v>
+        <v>936152</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>367239</v>
+        <v>364481</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>298544</v>
+        <v>296260</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>221767</v>
+        <v>220895</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>235767</v>
+        <v>235478</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>197666</v>
+        <v>196943</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>545140</v>
+        <v>548490</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>434836</v>
+        <v>434454</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>355182</v>
+        <v>353495</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>283353</v>
+        <v>285531</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>290746</v>
+        <v>290685</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>243408</v>
+        <v>246220</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>626746</v>
+        <v>627264</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>511218</v>
+        <v>513279</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>200205</v>
+        <v>198487</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>217991</v>
+        <v>214615</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>141521</v>
+        <v>140883</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>159018</v>
+        <v>158708</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>352858</v>
+        <v>354526</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>390735</v>
+        <v>392973</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>253430</v>
+        <v>252199</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>276565</v>
+        <v>276439</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>186526</v>
+        <v>188316</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>202839</v>
+        <v>202540</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>425408</v>
+        <v>426014</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>462898</v>
+        <v>466042</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>108524</v>
+        <v>108888</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>174051</v>
+        <v>174198</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>74675</v>
+        <v>75374</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>135985</v>
+        <v>137247</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>194145</v>
+        <v>194147</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>324189</v>
+        <v>324724</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>148752</v>
+        <v>148534</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>234868</v>
+        <v>233998</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>111062</v>
+        <v>110914</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>177958</v>
+        <v>181198</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>248330</v>
+        <v>244981</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>401936</v>
+        <v>397451</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1110860</v>
+        <v>1111639</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>833412</v>
+        <v>837685</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>862721</v>
+        <v>866379</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>664131</v>
+        <v>662158</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2007942</v>
+        <v>2000555</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1521617</v>
+        <v>1519632</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1225218</v>
+        <v>1224120</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>945991</v>
+        <v>948635</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>967838</v>
+        <v>972982</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>749059</v>
+        <v>748827</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2160240</v>
+        <v>2159180</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1663842</v>
+        <v>1665580</v>
       </c>
     </row>
     <row r="24">
